--- a/Tools/Excel Management System/output.xlsx
+++ b/Tools/Excel Management System/output.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12250" uniqueCount="1635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12275" uniqueCount="1650">
   <si>
     <t>Subject</t>
   </si>
@@ -4934,7 +4934,52 @@
     <t>State a reason why a company may wish to choose a NoSQL DBMS</t>
   </si>
   <si>
-    <t>Extra data requirements not clear or consistent/Flexibility - new fields and be easily added without making changes to existing schema/Ease of accessto all data stored about a single apartment|Better performance speed for simple queries</t>
+    <t>Extra data requirements not clear or consistent/Flexibility - new fields and be easily added without making changes to existing schema/Ease of accessto all data stored about a single apartment/Better performance speed for simple queries</t>
+  </si>
+  <si>
+    <t>There is an address field in this database. Explain why storing this address as a single field is not good database design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An address consists of several components like Postal Code, State, and Street name. It is thus not feasible to validate the full address. Instead, splitting the address into say two fields, address and postal code, allows the database to look up a list of postal codes to validate the new address entered. </t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>Give two advantages of packet switching over circuit switching</t>
+  </si>
+  <si>
+    <t>ANY TWO|Packets are rerouted in case of any problems (eg. busy links or disabled links). This ensures reliable communication |It is more efficient for data transmission as it does not require path to be established between the sender and receiver and data are transmitted immediately |Many users can share the same channel simultaneously. Hence packet switching makes use of the band width efficiently</t>
+  </si>
+  <si>
+    <t>Explain why asynchronous data transmission affects network performance</t>
+  </si>
+  <si>
+    <t>Asynchronous transmission is relatively slow due to the additional start and stop bits and gaps between bytes.| These overhead results in more data that needs to be transmitted in the network affecting network performance</t>
+  </si>
+  <si>
+    <t>Describe one benefit of a client-server network over a peer-to-peer network</t>
+  </si>
+  <si>
+    <t>Client-server network is more secured as it contains a list of usernames and passwords for authentication. As all of the information is stored on a server, it is easier to secure data and setting of permissions on the server. |On a peer-to-peer network, data can be distributed across many computers that is acting as both a client and a server. it is much harder to ensure data security across many computers.</t>
+  </si>
+  <si>
+    <t>Give two advantages in storing shared data on a client server network rather than a peer-to-peer network</t>
+  </si>
+  <si>
+    <t>ANY TWO|Client-server has centralised management of the shared data resulting in better security as it can determine who have access rights and what kind for the shared data|Because it is a centralised system, it can be easy to add more resources and clients|Resources of P2P are divided between local activities and servicing network requests from other peers while in a client-server network, each peer has only to service local processing demands while requests for data are rooted to a dedicated server</t>
+  </si>
+  <si>
+    <t>Describe one drawback of a client-server network comparent to a peer-to-peer network</t>
+  </si>
+  <si>
+    <t>Client-server network is more expensive to implement. it usually requires faster and more reliable and robust hardware that costs more. Specialised software like network operating system and systems administrator to configure and oversee the network are other costs incurred that is not incurred on a peer to peer network.|OR|Failure of the server on a client-server network will cripple the whole network. Resources will not be accessible during the downtime and work cannot be done. Unlike a peer to peer where a single failure does not affect all computers.</t>
+  </si>
+  <si>
+    <t>Name three types of component that the booking form could use and dive into the types of data it is used to capture.</t>
+  </si>
+  <si>
+    <t>Radio buttons: Limited multiple choice options to choose from, such as the Vehicle Type (with 3 available options), makes input easy|Text boxes/ Text areas: Open-ended input for the management to type out names, address, and other information that cannot be validated automatically|Data-time input functions/ areas: Areas of the form that can input dates which can be easily standardised and formatted, allows for automatic computation of wire length and costs incurred</t>
   </si>
   <si>
     <t>25m</t>
@@ -4950,7 +4995,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -5015,11 +5060,16 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
     <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Docs-Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -5062,7 +5112,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5129,10 +5179,13 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -79493,7 +79546,7 @@
       <c r="C3" s="20" t="s">
         <v>1563</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="20">
         <v>2.0</v>
       </c>
       <c r="E3" s="20" t="s">
@@ -79522,7 +79575,7 @@
       <c r="C4" s="20" t="s">
         <v>1563</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="20">
         <v>3.0</v>
       </c>
       <c r="E4" s="20" t="s">
@@ -79551,7 +79604,7 @@
       <c r="C5" s="20" t="s">
         <v>1563</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="20">
         <v>4.0</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -79580,7 +79633,7 @@
       <c r="C6" s="20" t="s">
         <v>1563</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="20">
         <v>5.0</v>
       </c>
       <c r="E6" s="20" t="s">
@@ -79609,7 +79662,7 @@
       <c r="C7" s="20" t="s">
         <v>1563</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="20">
         <v>6.0</v>
       </c>
       <c r="E7" s="20" t="s">
@@ -79638,7 +79691,7 @@
       <c r="C8" s="20" t="s">
         <v>1563</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="20">
         <v>7.0</v>
       </c>
       <c r="E8" s="20" t="s">
@@ -79667,7 +79720,7 @@
       <c r="C9" s="20" t="s">
         <v>1563</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="20">
         <v>8.0</v>
       </c>
       <c r="E9" s="20" t="s">
@@ -79696,7 +79749,7 @@
       <c r="C10" s="20" t="s">
         <v>1563</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="20">
         <v>9.0</v>
       </c>
       <c r="E10" s="20" t="s">
@@ -79725,7 +79778,7 @@
       <c r="C11" s="20" t="s">
         <v>1563</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="20">
         <v>10.0</v>
       </c>
       <c r="E11" s="20" t="s">
@@ -79754,7 +79807,7 @@
       <c r="C12" s="20" t="s">
         <v>1563</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="20">
         <v>11.0</v>
       </c>
       <c r="E12" s="20" t="s">
@@ -79783,7 +79836,7 @@
       <c r="C13" s="20" t="s">
         <v>1563</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="20">
         <v>12.0</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -79803,25 +79856,25 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="20" t="s">
         <v>1562</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="20" t="s">
         <v>1563</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="20">
         <v>13.0</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="20" t="s">
         <v>1588</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="20" t="s">
         <v>1589</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="20" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="17" t="s">
@@ -79841,7 +79894,7 @@
       <c r="C15" s="20" t="s">
         <v>1563</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="20">
         <v>14.0</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -79867,16 +79920,16 @@
       <c r="B16" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="20" t="s">
         <v>1592</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="20">
         <v>15.0</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>1593</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="20" t="s">
         <v>1594</v>
       </c>
       <c r="H16" s="20" t="s">
@@ -79896,10 +79949,10 @@
       <c r="B17" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="20" t="s">
         <v>1592</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="20">
         <v>16.0</v>
       </c>
       <c r="E17" s="20" t="s">
@@ -79928,7 +79981,7 @@
       <c r="C18" s="20" t="s">
         <v>1592</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="20">
         <v>17.0</v>
       </c>
       <c r="E18" s="20" t="s">
@@ -79957,13 +80010,13 @@
       <c r="C19" s="20" t="s">
         <v>1592</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="20">
         <v>18.0</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>1599</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="20" t="s">
         <v>1600</v>
       </c>
       <c r="H19" s="20" t="s">
@@ -79986,7 +80039,7 @@
       <c r="C20" s="20" t="s">
         <v>1601</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="20">
         <v>19.0</v>
       </c>
       <c r="E20" s="20" t="s">
@@ -80015,13 +80068,13 @@
       <c r="C21" s="20" t="s">
         <v>1601</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="20">
         <v>20.0</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>1604</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="20" t="s">
         <v>1605</v>
       </c>
       <c r="H21" s="20" t="s">
@@ -80044,10 +80097,10 @@
       <c r="C22" s="20" t="s">
         <v>1601</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="20">
         <v>21.0</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="20" t="s">
         <v>1606</v>
       </c>
       <c r="G22" s="20" t="s">
@@ -80073,7 +80126,7 @@
       <c r="C23" s="20" t="s">
         <v>1601</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="20">
         <v>22.0</v>
       </c>
       <c r="E23" s="20" t="s">
@@ -80102,13 +80155,13 @@
       <c r="C24" s="20" t="s">
         <v>1610</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="20">
         <v>23.0</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>1611</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="20" t="s">
         <v>1612</v>
       </c>
       <c r="H24" s="20" t="s">
@@ -80131,13 +80184,13 @@
       <c r="C25" s="20" t="s">
         <v>1610</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="20">
         <v>24.0</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>1613</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="20" t="s">
         <v>1614</v>
       </c>
       <c r="H25" s="20" t="s">
@@ -80160,13 +80213,13 @@
       <c r="C26" s="20" t="s">
         <v>1610</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="20">
         <v>25.0</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>1615</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="26" t="s">
         <v>1616</v>
       </c>
       <c r="H26" s="20" t="s">
@@ -80189,13 +80242,13 @@
       <c r="C27" s="20" t="s">
         <v>1610</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="20">
         <v>26.0</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>1617</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="20" t="s">
         <v>1618</v>
       </c>
       <c r="H27" s="20">
@@ -80218,13 +80271,13 @@
       <c r="C28" s="20" t="s">
         <v>1610</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="20">
         <v>27.0</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="20" t="s">
         <v>1619</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="20" t="s">
         <v>1620</v>
       </c>
       <c r="H28" s="20" t="s">
@@ -80247,10 +80300,10 @@
       <c r="C29" s="20" t="s">
         <v>1610</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="20">
         <v>28.0</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="20" t="s">
         <v>1621</v>
       </c>
       <c r="G29" s="20" t="s">
@@ -80276,13 +80329,13 @@
       <c r="C30" s="20" t="s">
         <v>1610</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="20">
         <v>29.0</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>1623</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="20" t="s">
         <v>1624</v>
       </c>
       <c r="H30" s="20" t="s">
@@ -80305,13 +80358,13 @@
       <c r="C31" s="20" t="s">
         <v>1610</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="20">
         <v>30.0</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>1625</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="20" t="s">
         <v>1626</v>
       </c>
       <c r="H31" s="20" t="s">
@@ -80334,7 +80387,7 @@
       <c r="C32" s="20" t="s">
         <v>1610</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="20">
         <v>31.0</v>
       </c>
       <c r="E32" s="20" t="s">
@@ -80343,7 +80396,7 @@
       <c r="G32" s="20" t="s">
         <v>1628</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="20" t="s">
         <v>37</v>
       </c>
       <c r="I32" s="17" t="s">
@@ -80360,16 +80413,16 @@
       <c r="B33" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="20" t="s">
         <v>1629</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="20">
         <v>32.0</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="20" t="s">
         <v>1630</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="27" t="s">
         <v>1631</v>
       </c>
       <c r="H33" s="20">
@@ -80383,12 +80436,33 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+      <c r="A34" s="20" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D34" s="20">
+        <v>33.0</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>1632</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H34" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="17">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="20" t="s">
@@ -80397,11 +80471,20 @@
       <c r="B35" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D35" s="26">
-        <v>33.0</v>
+      <c r="C35" s="27" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D35" s="20">
+        <v>34.0</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>1635</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="I35" s="17" t="s">
         <v>20</v>
@@ -80418,10 +80501,19 @@
         <v>560</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D36" s="26">
-        <v>34.0</v>
+        <v>1634</v>
+      </c>
+      <c r="D36" s="20">
+        <v>35.0</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>1638</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="I36" s="17" t="s">
         <v>20</v>
@@ -80437,8 +80529,20 @@
       <c r="B37" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D37" s="26">
-        <v>35.0</v>
+      <c r="C37" s="20" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D37" s="20">
+        <v>36.0</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>1640</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="I37" s="17" t="s">
         <v>20</v>
@@ -80454,8 +80558,20 @@
       <c r="B38" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D38" s="26">
-        <v>36.0</v>
+      <c r="C38" s="20" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D38" s="20">
+        <v>37.0</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>1641</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="I38" s="17" t="s">
         <v>20</v>
@@ -80471,8 +80587,20 @@
       <c r="B39" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D39" s="26">
-        <v>37.0</v>
+      <c r="C39" s="20" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D39" s="20">
+        <v>38.0</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>1643</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="I39" s="17" t="s">
         <v>20</v>
@@ -80488,8 +80616,20 @@
       <c r="B40" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D40" s="26">
-        <v>38.0</v>
+      <c r="C40" s="20" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D40" s="20">
+        <v>39.0</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>1645</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="I40" s="17" t="s">
         <v>20</v>
@@ -80499,21 +80639,12 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="20" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="D41" s="26">
-        <v>39.0</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="17">
-        <v>1.0</v>
-      </c>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
     </row>
     <row r="42">
       <c r="A42" s="20" t="s">
@@ -80522,7 +80653,7 @@
       <c r="B42" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D42" s="26">
+      <c r="D42" s="20">
         <v>40.0</v>
       </c>
       <c r="I42" s="17" t="s">
@@ -80539,7 +80670,7 @@
       <c r="B43" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D43" s="26">
+      <c r="D43" s="20">
         <v>41.0</v>
       </c>
       <c r="I43" s="17" t="s">
@@ -80556,7 +80687,7 @@
       <c r="B44" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D44" s="26">
+      <c r="D44" s="20">
         <v>42.0</v>
       </c>
       <c r="I44" s="17" t="s">
@@ -80573,7 +80704,7 @@
       <c r="B45" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D45" s="26">
+      <c r="D45" s="20">
         <v>43.0</v>
       </c>
       <c r="I45" s="17" t="s">
@@ -80590,7 +80721,7 @@
       <c r="B46" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D46" s="26">
+      <c r="D46" s="20">
         <v>44.0</v>
       </c>
       <c r="I46" s="17" t="s">
@@ -80607,7 +80738,7 @@
       <c r="B47" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D47" s="26">
+      <c r="D47" s="20">
         <v>45.0</v>
       </c>
       <c r="I47" s="17" t="s">
@@ -80624,7 +80755,7 @@
       <c r="B48" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D48" s="26">
+      <c r="D48" s="20">
         <v>46.0</v>
       </c>
       <c r="I48" s="17" t="s">
@@ -80641,7 +80772,7 @@
       <c r="B49" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D49" s="26">
+      <c r="D49" s="20">
         <v>47.0</v>
       </c>
       <c r="I49" s="17" t="s">
@@ -80658,7 +80789,7 @@
       <c r="B50" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D50" s="26">
+      <c r="D50" s="20">
         <v>48.0</v>
       </c>
       <c r="I50" s="17" t="s">
@@ -80675,7 +80806,7 @@
       <c r="B51" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D51" s="26">
+      <c r="D51" s="20">
         <v>49.0</v>
       </c>
       <c r="I51" s="17" t="s">
@@ -80692,7 +80823,7 @@
       <c r="B52" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D52" s="26">
+      <c r="D52" s="20">
         <v>50.0</v>
       </c>
       <c r="I52" s="17" t="s">
@@ -80709,7 +80840,7 @@
       <c r="B53" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D53" s="26">
+      <c r="D53" s="20">
         <v>51.0</v>
       </c>
       <c r="I53" s="17" t="s">
@@ -80726,7 +80857,7 @@
       <c r="B54" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D54" s="26">
+      <c r="D54" s="20">
         <v>52.0</v>
       </c>
       <c r="I54" s="17" t="s">
@@ -80743,7 +80874,7 @@
       <c r="B55" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D55" s="26">
+      <c r="D55" s="20">
         <v>53.0</v>
       </c>
       <c r="I55" s="17" t="s">
@@ -80760,7 +80891,7 @@
       <c r="B56" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D56" s="26">
+      <c r="D56" s="20">
         <v>54.0</v>
       </c>
       <c r="I56" s="17" t="s">
@@ -80777,7 +80908,7 @@
       <c r="B57" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D57" s="26">
+      <c r="D57" s="20">
         <v>55.0</v>
       </c>
       <c r="I57" s="17" t="s">
@@ -80794,7 +80925,7 @@
       <c r="B58" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D58" s="26">
+      <c r="D58" s="20">
         <v>56.0</v>
       </c>
       <c r="I58" s="17" t="s">
@@ -80811,7 +80942,7 @@
       <c r="B59" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D59" s="26">
+      <c r="D59" s="20">
         <v>57.0</v>
       </c>
       <c r="I59" s="17" t="s">
@@ -80828,7 +80959,7 @@
       <c r="B60" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D60" s="26">
+      <c r="D60" s="20">
         <v>58.0</v>
       </c>
       <c r="I60" s="17" t="s">
@@ -80845,7 +80976,7 @@
       <c r="B61" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D61" s="20">
         <v>59.0</v>
       </c>
       <c r="I61" s="17" t="s">
@@ -80862,7 +80993,7 @@
       <c r="B62" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D62" s="26">
+      <c r="D62" s="20">
         <v>60.0</v>
       </c>
       <c r="I62" s="17" t="s">
@@ -80879,7 +81010,7 @@
       <c r="B63" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D63" s="26">
+      <c r="D63" s="20">
         <v>61.0</v>
       </c>
       <c r="I63" s="17" t="s">
@@ -80896,7 +81027,7 @@
       <c r="B64" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D64" s="26">
+      <c r="D64" s="20">
         <v>62.0</v>
       </c>
       <c r="I64" s="17" t="s">
@@ -80910,7 +81041,7 @@
       <c r="B65" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D65" s="26">
+      <c r="D65" s="20">
         <v>63.0</v>
       </c>
       <c r="I65" s="17" t="s">
@@ -80924,7 +81055,7 @@
       <c r="B66" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D66" s="26">
+      <c r="D66" s="20">
         <v>64.0</v>
       </c>
       <c r="I66" s="17" t="s">
@@ -80938,7 +81069,7 @@
       <c r="B67" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D67" s="26">
+      <c r="D67" s="20">
         <v>65.0</v>
       </c>
       <c r="I67" s="17" t="s">
@@ -80952,7 +81083,7 @@
       <c r="B68" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D68" s="26">
+      <c r="D68" s="20">
         <v>66.0</v>
       </c>
       <c r="I68" s="17" t="s">
@@ -80966,7 +81097,7 @@
       <c r="B69" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D69" s="26">
+      <c r="D69" s="20">
         <v>67.0</v>
       </c>
       <c r="I69" s="22"/>
@@ -80978,7 +81109,7 @@
       <c r="B70" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D70" s="26">
+      <c r="D70" s="20">
         <v>68.0</v>
       </c>
       <c r="I70" s="22"/>
@@ -80990,7 +81121,7 @@
       <c r="B71" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D71" s="26">
+      <c r="D71" s="20">
         <v>69.0</v>
       </c>
       <c r="I71" s="22"/>
@@ -81002,7 +81133,7 @@
       <c r="B72" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D72" s="26">
+      <c r="D72" s="20">
         <v>70.0</v>
       </c>
       <c r="I72" s="22"/>
@@ -81014,7 +81145,7 @@
       <c r="B73" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D73" s="26">
+      <c r="D73" s="20">
         <v>71.0</v>
       </c>
       <c r="I73" s="22"/>
@@ -81026,7 +81157,7 @@
       <c r="B74" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D74" s="26">
+      <c r="D74" s="20">
         <v>72.0</v>
       </c>
       <c r="I74" s="22"/>
@@ -81038,7 +81169,7 @@
       <c r="B75" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D75" s="26">
+      <c r="D75" s="20">
         <v>73.0</v>
       </c>
       <c r="I75" s="22"/>
@@ -81050,7 +81181,7 @@
       <c r="B76" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D76" s="26">
+      <c r="D76" s="20">
         <v>74.0</v>
       </c>
       <c r="I76" s="22"/>
@@ -81062,7 +81193,7 @@
       <c r="B77" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D77" s="26">
+      <c r="D77" s="20">
         <v>75.0</v>
       </c>
       <c r="I77" s="22"/>
@@ -81074,7 +81205,7 @@
       <c r="B78" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D78" s="26">
+      <c r="D78" s="20">
         <v>76.0</v>
       </c>
       <c r="I78" s="22"/>
@@ -81086,7 +81217,7 @@
       <c r="B79" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D79" s="26">
+      <c r="D79" s="20">
         <v>77.0</v>
       </c>
       <c r="I79" s="22"/>
@@ -81098,7 +81229,7 @@
       <c r="B80" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D80" s="26">
+      <c r="D80" s="20">
         <v>78.0</v>
       </c>
       <c r="I80" s="22"/>
@@ -81110,7 +81241,7 @@
       <c r="B81" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D81" s="26">
+      <c r="D81" s="20">
         <v>79.0</v>
       </c>
       <c r="I81" s="22"/>
@@ -81122,7 +81253,7 @@
       <c r="B82" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="D82" s="26">
+      <c r="D82" s="20">
         <v>80.0</v>
       </c>
       <c r="I82" s="22"/>
@@ -81131,7 +81262,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="D83" s="26">
+      <c r="D83" s="20">
         <v>81.0</v>
       </c>
       <c r="I83" s="22"/>
@@ -81140,7 +81271,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="D84" s="26">
+      <c r="D84" s="20">
         <v>82.0</v>
       </c>
       <c r="I84" s="22"/>
@@ -84427,7 +84558,7 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>1632</v>
+        <v>1647</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>281</v>
@@ -84438,7 +84569,7 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>1633</v>
+        <v>1648</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>39</v>
@@ -84449,7 +84580,7 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>1634</v>
+        <v>1649</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>262</v>

--- a/Tools/Excel Management System/output.xlsx
+++ b/Tools/Excel Management System/output.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12275" uniqueCount="1650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12542" uniqueCount="1672">
   <si>
     <t>Subject</t>
   </si>
@@ -4982,6 +4982,72 @@
     <t>Radio buttons: Limited multiple choice options to choose from, such as the Vehicle Type (with 3 available options), makes input easy|Text boxes/ Text areas: Open-ended input for the management to type out names, address, and other information that cannot be validated automatically|Data-time input functions/ areas: Areas of the form that can input dates which can be easily standardised and formatted, allows for automatic computation of wire length and costs incurred</t>
   </si>
   <si>
+    <t>https://www.testpapersfree.com/pdfs/JC2_GP_H1_2018_Temasek.pdf</t>
+  </si>
+  <si>
+    <t>Catholic JC 2018</t>
+  </si>
+  <si>
+    <t>https://www.testpapersfree.com/pdfs/JC2_GP_H1_2018_Catholic.pdf</t>
+  </si>
+  <si>
+    <t>https://www.testpapersfree.com/pdfs/JC2_GP_H1_2018_Victoria.pdf</t>
+  </si>
+  <si>
+    <t>ACJC 2016</t>
+  </si>
+  <si>
+    <t>https://www.testpapersfree.com/pdfs/JC2_GP_H1_2016_ACJC.pdf</t>
+  </si>
+  <si>
+    <t>AJC 2016</t>
+  </si>
+  <si>
+    <t>https://www.testpapersfree.com/pdfs/JC2_GP_H1_2016_AJC.pdf</t>
+  </si>
+  <si>
+    <t>Innova JC 2016</t>
+  </si>
+  <si>
+    <t>https://www.testpapersfree.com/pdfs/JC2_GP_H1_2016_IJC.pdf</t>
+  </si>
+  <si>
+    <t>JJC 2016</t>
+  </si>
+  <si>
+    <t>https://www.testpapersfree.com/pdfs/JC2_GP_H1_2016_JJC.pdf</t>
+  </si>
+  <si>
+    <t>MJC 2016</t>
+  </si>
+  <si>
+    <t>https://www.testpapersfree.com/pdfs/JC2_GP_H1_2016_MJC.pdf</t>
+  </si>
+  <si>
+    <t>NJC 2016</t>
+  </si>
+  <si>
+    <t>https://www.testpapersfree.com/pdfs/JC2_GP_H1_2016_NJC.pdf</t>
+  </si>
+  <si>
+    <t>NYJC 2016</t>
+  </si>
+  <si>
+    <t>https://www.testpapersfree.com/pdfs/JC2_GP_H1_2016_NYJC.pdf</t>
+  </si>
+  <si>
+    <t>PJC 2016</t>
+  </si>
+  <si>
+    <t>https://www.testpapersfree.com/pdfs/JC2_GP_H1_2016_PJC.pdf</t>
+  </si>
+  <si>
+    <t>RVHS 2016</t>
+  </si>
+  <si>
+    <t>https://www.testpapersfree.com/pdfs/JC2_GP_H1_2016_RVJC.pdf</t>
+  </si>
+  <si>
     <t>25m</t>
   </si>
   <si>
@@ -4995,7 +5061,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -5065,7 +5131,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -5112,7 +5177,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5182,10 +5247,7 @@
     <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -80422,7 +80484,7 @@
       <c r="E33" s="20" t="s">
         <v>1630</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="20" t="s">
         <v>1631</v>
       </c>
       <c r="H33" s="20">
@@ -80442,16 +80504,16 @@
       <c r="B34" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="20" t="s">
         <v>1629</v>
       </c>
       <c r="D34" s="20">
         <v>33.0</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="27" t="s">
         <v>1632</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="20" t="s">
         <v>1633</v>
       </c>
       <c r="H34" s="20">
@@ -80471,7 +80533,7 @@
       <c r="B35" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="20" t="s">
         <v>1634</v>
       </c>
       <c r="D35" s="20">
@@ -80593,13 +80655,13 @@
       <c r="D39" s="20">
         <v>38.0</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="20" t="s">
         <v>1643</v>
       </c>
-      <c r="G39" s="27" t="s">
+      <c r="G39" s="20" t="s">
         <v>1644</v>
       </c>
-      <c r="H39" s="27" t="s">
+      <c r="H39" s="20" t="s">
         <v>19</v>
       </c>
       <c r="I39" s="17" t="s">
@@ -80625,7 +80687,7 @@
       <c r="E40" s="20" t="s">
         <v>1645</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" s="20" t="s">
         <v>1646</v>
       </c>
       <c r="H40" s="20" t="s">
@@ -84277,6 +84339,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col hidden="1" min="3" max="9" width="12.63"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="s">
@@ -84332,8 +84397,8 @@
       <c r="C2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>115</v>
+      <c r="D2" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -84351,6 +84416,9 @@
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
+      <c r="M2" s="21" t="s">
+        <v>1647</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
@@ -84362,8 +84430,8 @@
       <c r="C3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>116</v>
+      <c r="D3" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -84381,6 +84449,9 @@
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
+      <c r="M3" s="21" t="s">
+        <v>1647</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
@@ -84392,8 +84463,8 @@
       <c r="C4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>117</v>
+      <c r="D4" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -84411,9 +84482,1073 @@
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
+      <c r="M4" s="21" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M32" s="21" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M35" s="21" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M36" s="21" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>1668</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="M2"/>
+    <hyperlink r:id="rId2" ref="M3"/>
+    <hyperlink r:id="rId3" ref="M4"/>
+    <hyperlink r:id="rId4" ref="M5"/>
+    <hyperlink r:id="rId5" ref="M6"/>
+    <hyperlink r:id="rId6" ref="M7"/>
+    <hyperlink r:id="rId7" ref="M8"/>
+    <hyperlink r:id="rId8" ref="M9"/>
+    <hyperlink r:id="rId9" ref="M10"/>
+    <hyperlink r:id="rId10" ref="M11"/>
+    <hyperlink r:id="rId11" ref="M12"/>
+    <hyperlink r:id="rId12" ref="M13"/>
+    <hyperlink r:id="rId13" ref="M14"/>
+    <hyperlink r:id="rId14" ref="M15"/>
+    <hyperlink r:id="rId15" ref="M16"/>
+    <hyperlink r:id="rId16" ref="M17"/>
+    <hyperlink r:id="rId17" ref="M18"/>
+    <hyperlink r:id="rId18" ref="M19"/>
+    <hyperlink r:id="rId19" ref="M20"/>
+    <hyperlink r:id="rId20" ref="M21"/>
+    <hyperlink r:id="rId21" ref="M22"/>
+    <hyperlink r:id="rId22" ref="M23"/>
+    <hyperlink r:id="rId23" ref="M24"/>
+    <hyperlink r:id="rId24" ref="M25"/>
+    <hyperlink r:id="rId25" ref="M26"/>
+    <hyperlink r:id="rId26" ref="M27"/>
+    <hyperlink r:id="rId27" ref="M28"/>
+    <hyperlink r:id="rId28" ref="M29"/>
+    <hyperlink r:id="rId29" ref="M30"/>
+    <hyperlink r:id="rId30" ref="M31"/>
+    <hyperlink r:id="rId31" ref="M32"/>
+    <hyperlink r:id="rId32" ref="M33"/>
+    <hyperlink r:id="rId33" ref="M34"/>
+    <hyperlink r:id="rId34" ref="M35"/>
+    <hyperlink r:id="rId35" ref="M36"/>
+    <hyperlink r:id="rId36" ref="M37"/>
+  </hyperlinks>
+  <drawing r:id="rId37"/>
 </worksheet>
 </file>
 
@@ -84558,7 +85693,7 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>1647</v>
+        <v>1669</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>281</v>
@@ -84569,7 +85704,7 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>1648</v>
+        <v>1670</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>39</v>
@@ -84580,7 +85715,7 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>1649</v>
+        <v>1671</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>262</v>
